--- a/Excel Logic/Titration of a Diprotic Acid.xlsx
+++ b/Excel Logic/Titration of a Diprotic Acid.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkawagoe/Scripts/Lab Check/KaKb Lab/Excel Logic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481E10B8-4CD3-164F-ACCA-7767DF667E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8D9C512-03CB-DA46-A8DB-2659AFAA243F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="36000" windowHeight="22580" xr2:uid="{B08A5625-5E6F-194C-AD5D-708E44ABF052}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Titration of a Diprotic Acid" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>Mass of diprotic acid</t>
   </si>
@@ -62,12 +62,12 @@
     <t>Subsection</t>
   </si>
   <si>
-    <t>Trial 1 Data Tag</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
+    <t>Trial 1</t>
+  </si>
+  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -134,9 +134,6 @@
     <t>Volume of NaOH added at the alternate equivalence point</t>
   </si>
   <si>
-    <t>Column 1</t>
-  </si>
-  <si>
     <t>NaOH Volume added after the largest pH increase</t>
   </si>
   <si>
@@ -177,16 +174,91 @@
   </si>
   <si>
     <t>Ka2</t>
+  </si>
+  <si>
+    <t>DataRef1</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
+    <t>E26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -550,19 +622,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1E2270-82B9-2940-83B9-E51AC9B1C8BD}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -582,7 +654,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -590,319 +662,403 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="E5">
         <v>0.12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="E6">
         <v>0.1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E5" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E6" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="F6">
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f>(E8+E9)/2</f>
+        <v>20.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <f>E10/1000*E6</f>
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <f>IF(E7="First",E11,E11/2)</f>
+        <v>1.0250000000000001E-3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1">
+        <f>(E15-E13)/E15*100</f>
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <f>(F6+F7)/2</f>
-        <v>20.5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <f>(E19+E20)/2</f>
+        <v>10.5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9">
-        <f>F8/1000*F4</f>
-        <v>2.0500000000000002E-3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <f>IF(E7="First",E10/2,E21/2)</f>
+        <v>5.25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <f>IF(F5="First",F9,F9/2)</f>
-        <v>1.0250000000000001E-3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24">
+        <f>IF(E7="Second",(E10-E21)+E21,(E21-E10)+E10)</f>
+        <v>10.5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="2">
+        <f>10^-E25</f>
+        <v>1E-3</v>
+      </c>
+      <c r="G27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="1">
-        <f>(F13-F11)/F13</f>
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="2">
+        <f>10^-E26</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18">
-        <v>11</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19">
-        <f>(F17+F18)/2</f>
-        <v>10.5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21">
-        <f>IF(F5="First",F8/2,F19/2)</f>
-        <v>5.25</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22">
-        <f>IF(F5="Second",(F8-F19)+F19,(F19-F8)+F8)</f>
-        <v>10.5</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="2">
-        <f>10^-F23</f>
-        <v>1E-3</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="2">
-        <f>10^-F24</f>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>